--- a/xlsx/多米尼克_intext.xlsx
+++ b/xlsx/多米尼克_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="574">
   <si>
     <t>多米尼克</t>
   </si>
@@ -29,19 +29,19 @@
     <t>多米尼加</t>
   </si>
   <si>
-    <t>政策_政策_美國_多米尼克</t>
+    <t>政策_政策_美国_多米尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>多米尼克國旗</t>
+    <t>多米尼克国旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>多米尼克國徽</t>
+    <t>多米尼克国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E4%B8%BD%E7%9A%84%E5%B2%9B%EF%BC%8C%E4%BC%9F%E5%A4%A7%E7%9A%84%E5%B2%9B</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%A2</t>
   </si>
   <si>
-    <t>羅索</t>
+    <t>罗索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%94%BF%E5%BA%9C%E6%89%80%E5%9C%A8%E5%9C%B0</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
@@ -173,43 +173,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
   </si>
   <si>
-    <t>電</t>
+    <t>电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
   </si>
   <si>
-    <t>電壓</t>
+    <t>电压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E9%9B%BB%E6%BA%90%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>家用電源列表</t>
+    <t>家用电源列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
   </si>
   <si>
-    <t>頻率</t>
+    <t>频率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E5%88%B6</t>
   </si>
   <si>
-    <t>單一制</t>
+    <t>单一制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B%E8%AE%AE%E4%BC%9A</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B%E6%80%BB%E7%BB%9F</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B%E6%80%BB%E7%90%86</t>
@@ -257,19 +257,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF%E7%A6%8F%C2%B7%E6%96%AF%E5%87%B1%E9%87%8C%E7%89%B9</t>
   </si>
   <si>
-    <t>羅斯福·斯凱里特</t>
+    <t>罗斯福·斯凯里特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4</t>
@@ -299,13 +299,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8A%A0%E5%8B%92%E6%AF%94%E5%85%83</t>
   </si>
   <si>
-    <t>東加勒比元</t>
+    <t>东加勒比元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.dm</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
@@ -347,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E5%A4%96%E4%BA%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>中華人民共和國外交部</t>
+    <t>中华人民共和国外交部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B%E5%8E%86%E5%8F%B2</t>
@@ -371,13 +371,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%80%E5%85%89%E6%A5%AD</t>
   </si>
   <si>
-    <t>觀光業</t>
+    <t>观光业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B8%E8%8D%89</t>
@@ -431,31 +431,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙買加</t>
+    <t>牙买加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9F%93</t>
   </si>
   <si>
-    <t>南韓</t>
+    <t>南韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E4%BA%BA%E9%A2%86%E5%9C%B0</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8F%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>新華網</t>
+    <t>新华网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:America</t>
@@ -593,13 +593,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙买加</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -689,13 +686,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
@@ -707,25 +704,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維京群島</t>
+    <t>英属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -737,19 +734,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
+    <t>开曼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -767,31 +764,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴泰勒米島</t>
+    <t>圣巴泰勒米岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -839,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
@@ -851,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -911,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
@@ -995,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -1055,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A8%81%E5%A3%AB%E5%85%B0</t>
@@ -1073,13 +1070,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%8A%A0</t>
   </si>
   <si>
-    <t>湯加</t>
+    <t>汤加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E7%9B%A7</t>
   </si>
   <si>
-    <t>圖瓦盧</t>
+    <t>图瓦卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
@@ -1115,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BB%80%E6%91%A9%E5%8F%8A%E5%8D%A1%E5%9C%B0%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞什摩及卡地爾群島</t>
+    <t>亚什摩及卡地尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
@@ -1145,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E5%BE%97%E5%8F%8A%E9%BA%A5%E5%94%90%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>賀得及麥唐納群島</t>
+    <t>贺得及麦唐纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E7%A6%8F%E5%85%8B%E5%B2%9B</t>
@@ -1163,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
+    <t>纽埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E5%B1%9E%E5%9C%B0</t>
@@ -1205,15 +1202,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%9B%BC%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E5%85%B0%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>福克兰群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
   </si>
   <si>
@@ -1259,25 +1250,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E7%8E%BB%E5%88%A9%E7%93%A6%E7%88%BE%E5%90%8C%E7%9B%9F</t>
   </si>
   <si>
-    <t>美洲玻利瓦爾同盟</t>
+    <t>美洲玻利瓦尔同盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
   </si>
   <si>
-    <t>安地卡及巴布達</t>
+    <t>安地卡及巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E5%8F%8A%E6%A0%BC%E7%91%9E%E9%82%A3%E4%B8%81</t>
   </si>
   <si>
-    <t>聖文森及格瑞那丁</t>
+    <t>圣文森及格瑞那丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -1295,7 +1286,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
@@ -1319,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -1343,7 +1334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
@@ -1409,7 +1400,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -1439,7 +1430,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
@@ -1481,7 +1472,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>新不倫瑞克</t>
+    <t>新不伦瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -1499,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
@@ -1535,7 +1526,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -1553,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
@@ -1619,7 +1610,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -1631,7 +1622,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5</t>
@@ -1691,7 +1682,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
   </si>
   <si>
-    <t>布特羅斯·布特羅斯-加利</t>
+    <t>布特罗斯·布特罗斯-加利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
@@ -1709,19 +1700,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>法語系運動會</t>
+    <t>法语系运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
   </si>
   <si>
-    <t>法國電視國際五台</t>
+    <t>法国电视国际五台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1745,7 +1736,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2467,7 +2458,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -5016,7 +5007,7 @@
         <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -5042,10 +5033,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" t="s">
         <v>193</v>
-      </c>
-      <c r="F102" t="s">
-        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5071,10 +5062,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>194</v>
+      </c>
+      <c r="F103" t="s">
         <v>195</v>
-      </c>
-      <c r="F103" t="s">
-        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5100,10 +5091,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104" t="s">
         <v>197</v>
-      </c>
-      <c r="F104" t="s">
-        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5158,10 +5149,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F106" t="s">
         <v>199</v>
-      </c>
-      <c r="F106" t="s">
-        <v>200</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5187,10 +5178,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>200</v>
+      </c>
+      <c r="F107" t="s">
         <v>201</v>
-      </c>
-      <c r="F107" t="s">
-        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -5216,10 +5207,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>202</v>
+      </c>
+      <c r="F108" t="s">
         <v>203</v>
-      </c>
-      <c r="F108" t="s">
-        <v>204</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5245,10 +5236,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>204</v>
+      </c>
+      <c r="F109" t="s">
         <v>205</v>
-      </c>
-      <c r="F109" t="s">
-        <v>206</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5274,10 +5265,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>206</v>
+      </c>
+      <c r="F110" t="s">
         <v>207</v>
-      </c>
-      <c r="F110" t="s">
-        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5303,10 +5294,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>208</v>
+      </c>
+      <c r="F111" t="s">
         <v>209</v>
-      </c>
-      <c r="F111" t="s">
-        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5332,10 +5323,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>210</v>
+      </c>
+      <c r="F112" t="s">
         <v>211</v>
-      </c>
-      <c r="F112" t="s">
-        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5361,10 +5352,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>212</v>
+      </c>
+      <c r="F113" t="s">
         <v>213</v>
-      </c>
-      <c r="F113" t="s">
-        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5390,10 +5381,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>214</v>
+      </c>
+      <c r="F114" t="s">
         <v>215</v>
-      </c>
-      <c r="F114" t="s">
-        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5419,10 +5410,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>216</v>
+      </c>
+      <c r="F115" t="s">
         <v>217</v>
-      </c>
-      <c r="F115" t="s">
-        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5448,10 +5439,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>218</v>
+      </c>
+      <c r="F116" t="s">
         <v>219</v>
-      </c>
-      <c r="F116" t="s">
-        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5477,10 +5468,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>220</v>
+      </c>
+      <c r="F117" t="s">
         <v>221</v>
-      </c>
-      <c r="F117" t="s">
-        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5506,10 +5497,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>222</v>
+      </c>
+      <c r="F118" t="s">
         <v>223</v>
-      </c>
-      <c r="F118" t="s">
-        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5535,10 +5526,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>224</v>
+      </c>
+      <c r="F119" t="s">
         <v>225</v>
-      </c>
-      <c r="F119" t="s">
-        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5564,10 +5555,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>226</v>
+      </c>
+      <c r="F120" t="s">
         <v>227</v>
-      </c>
-      <c r="F120" t="s">
-        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5593,10 +5584,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>228</v>
+      </c>
+      <c r="F121" t="s">
         <v>229</v>
-      </c>
-      <c r="F121" t="s">
-        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5622,10 +5613,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>230</v>
+      </c>
+      <c r="F122" t="s">
         <v>231</v>
-      </c>
-      <c r="F122" t="s">
-        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5651,10 +5642,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>232</v>
+      </c>
+      <c r="F123" t="s">
         <v>233</v>
-      </c>
-      <c r="F123" t="s">
-        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5680,10 +5671,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>234</v>
+      </c>
+      <c r="F124" t="s">
         <v>235</v>
-      </c>
-      <c r="F124" t="s">
-        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5709,10 +5700,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>236</v>
+      </c>
+      <c r="F125" t="s">
         <v>237</v>
-      </c>
-      <c r="F125" t="s">
-        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5738,10 +5729,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>238</v>
+      </c>
+      <c r="F126" t="s">
         <v>239</v>
-      </c>
-      <c r="F126" t="s">
-        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5767,10 +5758,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>240</v>
+      </c>
+      <c r="F127" t="s">
         <v>241</v>
-      </c>
-      <c r="F127" t="s">
-        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5796,10 +5787,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>242</v>
+      </c>
+      <c r="F128" t="s">
         <v>243</v>
-      </c>
-      <c r="F128" t="s">
-        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5825,10 +5816,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>244</v>
+      </c>
+      <c r="F129" t="s">
         <v>245</v>
-      </c>
-      <c r="F129" t="s">
-        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5854,10 +5845,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" t="s">
         <v>247</v>
-      </c>
-      <c r="F130" t="s">
-        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5883,10 +5874,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>248</v>
+      </c>
+      <c r="F131" t="s">
         <v>249</v>
-      </c>
-      <c r="F131" t="s">
-        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5912,10 +5903,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132" t="s">
         <v>251</v>
-      </c>
-      <c r="F132" t="s">
-        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5941,10 +5932,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>252</v>
+      </c>
+      <c r="F133" t="s">
         <v>253</v>
-      </c>
-      <c r="F133" t="s">
-        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5970,10 +5961,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>254</v>
+      </c>
+      <c r="F134" t="s">
         <v>255</v>
-      </c>
-      <c r="F134" t="s">
-        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5999,10 +5990,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>256</v>
+      </c>
+      <c r="F135" t="s">
         <v>257</v>
-      </c>
-      <c r="F135" t="s">
-        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6028,10 +6019,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>258</v>
+      </c>
+      <c r="F136" t="s">
         <v>259</v>
-      </c>
-      <c r="F136" t="s">
-        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6057,10 +6048,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>260</v>
+      </c>
+      <c r="F137" t="s">
         <v>261</v>
-      </c>
-      <c r="F137" t="s">
-        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6086,10 +6077,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>262</v>
+      </c>
+      <c r="F138" t="s">
         <v>263</v>
-      </c>
-      <c r="F138" t="s">
-        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -6115,10 +6106,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>264</v>
+      </c>
+      <c r="F139" t="s">
         <v>265</v>
-      </c>
-      <c r="F139" t="s">
-        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6144,10 +6135,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>266</v>
+      </c>
+      <c r="F140" t="s">
         <v>267</v>
-      </c>
-      <c r="F140" t="s">
-        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6173,10 +6164,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>268</v>
+      </c>
+      <c r="F141" t="s">
         <v>269</v>
-      </c>
-      <c r="F141" t="s">
-        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6202,10 +6193,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>270</v>
+      </c>
+      <c r="F142" t="s">
         <v>271</v>
-      </c>
-      <c r="F142" t="s">
-        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6231,10 +6222,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>272</v>
+      </c>
+      <c r="F143" t="s">
         <v>273</v>
-      </c>
-      <c r="F143" t="s">
-        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6260,10 +6251,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>274</v>
+      </c>
+      <c r="F144" t="s">
         <v>275</v>
-      </c>
-      <c r="F144" t="s">
-        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6289,10 +6280,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>276</v>
+      </c>
+      <c r="F145" t="s">
         <v>277</v>
-      </c>
-      <c r="F145" t="s">
-        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6318,10 +6309,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>278</v>
+      </c>
+      <c r="F146" t="s">
         <v>279</v>
-      </c>
-      <c r="F146" t="s">
-        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6347,10 +6338,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>280</v>
+      </c>
+      <c r="F147" t="s">
         <v>281</v>
-      </c>
-      <c r="F147" t="s">
-        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6376,10 +6367,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>282</v>
+      </c>
+      <c r="F148" t="s">
         <v>283</v>
-      </c>
-      <c r="F148" t="s">
-        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -6405,10 +6396,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>284</v>
+      </c>
+      <c r="F149" t="s">
         <v>285</v>
-      </c>
-      <c r="F149" t="s">
-        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6434,10 +6425,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>286</v>
+      </c>
+      <c r="F150" t="s">
         <v>287</v>
-      </c>
-      <c r="F150" t="s">
-        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6463,10 +6454,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>288</v>
+      </c>
+      <c r="F151" t="s">
         <v>289</v>
-      </c>
-      <c r="F151" t="s">
-        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6492,10 +6483,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>290</v>
+      </c>
+      <c r="F152" t="s">
         <v>291</v>
-      </c>
-      <c r="F152" t="s">
-        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6521,10 +6512,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>292</v>
+      </c>
+      <c r="F153" t="s">
         <v>293</v>
-      </c>
-      <c r="F153" t="s">
-        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6550,10 +6541,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>294</v>
+      </c>
+      <c r="F154" t="s">
         <v>295</v>
-      </c>
-      <c r="F154" t="s">
-        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6579,10 +6570,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>296</v>
+      </c>
+      <c r="F155" t="s">
         <v>297</v>
-      </c>
-      <c r="F155" t="s">
-        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6608,10 +6599,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>298</v>
+      </c>
+      <c r="F156" t="s">
         <v>299</v>
-      </c>
-      <c r="F156" t="s">
-        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6637,10 +6628,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>300</v>
+      </c>
+      <c r="F157" t="s">
         <v>301</v>
-      </c>
-      <c r="F157" t="s">
-        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>4</v>
@@ -6666,10 +6657,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>302</v>
+      </c>
+      <c r="F158" t="s">
         <v>303</v>
-      </c>
-      <c r="F158" t="s">
-        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6695,10 +6686,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>304</v>
+      </c>
+      <c r="F159" t="s">
         <v>305</v>
-      </c>
-      <c r="F159" t="s">
-        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6724,10 +6715,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>306</v>
+      </c>
+      <c r="F160" t="s">
         <v>307</v>
-      </c>
-      <c r="F160" t="s">
-        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6753,10 +6744,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>308</v>
+      </c>
+      <c r="F161" t="s">
         <v>309</v>
-      </c>
-      <c r="F161" t="s">
-        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6782,10 +6773,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>310</v>
+      </c>
+      <c r="F162" t="s">
         <v>311</v>
-      </c>
-      <c r="F162" t="s">
-        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6811,10 +6802,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>312</v>
+      </c>
+      <c r="F163" t="s">
         <v>313</v>
-      </c>
-      <c r="F163" t="s">
-        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6840,10 +6831,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>314</v>
+      </c>
+      <c r="F164" t="s">
         <v>315</v>
-      </c>
-      <c r="F164" t="s">
-        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6869,10 +6860,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>316</v>
+      </c>
+      <c r="F165" t="s">
         <v>317</v>
-      </c>
-      <c r="F165" t="s">
-        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6898,10 +6889,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>318</v>
+      </c>
+      <c r="F166" t="s">
         <v>319</v>
-      </c>
-      <c r="F166" t="s">
-        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6927,10 +6918,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>320</v>
+      </c>
+      <c r="F167" t="s">
         <v>321</v>
-      </c>
-      <c r="F167" t="s">
-        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6956,10 +6947,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>322</v>
+      </c>
+      <c r="F168" t="s">
         <v>323</v>
-      </c>
-      <c r="F168" t="s">
-        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6985,10 +6976,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>324</v>
+      </c>
+      <c r="F169" t="s">
         <v>325</v>
-      </c>
-      <c r="F169" t="s">
-        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7014,10 +7005,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>326</v>
+      </c>
+      <c r="F170" t="s">
         <v>327</v>
-      </c>
-      <c r="F170" t="s">
-        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7043,10 +7034,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>328</v>
+      </c>
+      <c r="F171" t="s">
         <v>329</v>
-      </c>
-      <c r="F171" t="s">
-        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7072,10 +7063,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>330</v>
+      </c>
+      <c r="F172" t="s">
         <v>331</v>
-      </c>
-      <c r="F172" t="s">
-        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7101,10 +7092,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>192</v>
+      </c>
+      <c r="F173" t="s">
         <v>193</v>
-      </c>
-      <c r="F173" t="s">
-        <v>194</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7130,10 +7121,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>194</v>
+      </c>
+      <c r="F174" t="s">
         <v>195</v>
-      </c>
-      <c r="F174" t="s">
-        <v>196</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -7159,10 +7150,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>196</v>
+      </c>
+      <c r="F175" t="s">
         <v>197</v>
-      </c>
-      <c r="F175" t="s">
-        <v>198</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7188,10 +7179,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>332</v>
+      </c>
+      <c r="F176" t="s">
         <v>333</v>
-      </c>
-      <c r="F176" t="s">
-        <v>334</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7217,10 +7208,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>334</v>
+      </c>
+      <c r="F177" t="s">
         <v>335</v>
-      </c>
-      <c r="F177" t="s">
-        <v>336</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7246,10 +7237,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>336</v>
+      </c>
+      <c r="F178" t="s">
         <v>337</v>
-      </c>
-      <c r="F178" t="s">
-        <v>338</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7275,10 +7266,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>338</v>
+      </c>
+      <c r="F179" t="s">
         <v>339</v>
-      </c>
-      <c r="F179" t="s">
-        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7304,10 +7295,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>340</v>
+      </c>
+      <c r="F180" t="s">
         <v>341</v>
-      </c>
-      <c r="F180" t="s">
-        <v>342</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7333,10 +7324,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>342</v>
+      </c>
+      <c r="F181" t="s">
         <v>343</v>
-      </c>
-      <c r="F181" t="s">
-        <v>344</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7362,10 +7353,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>344</v>
+      </c>
+      <c r="F182" t="s">
         <v>345</v>
-      </c>
-      <c r="F182" t="s">
-        <v>346</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7391,10 +7382,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>346</v>
+      </c>
+      <c r="F183" t="s">
         <v>347</v>
-      </c>
-      <c r="F183" t="s">
-        <v>348</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7420,10 +7411,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>348</v>
+      </c>
+      <c r="F184" t="s">
         <v>349</v>
-      </c>
-      <c r="F184" t="s">
-        <v>350</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7449,10 +7440,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>350</v>
+      </c>
+      <c r="F185" t="s">
         <v>351</v>
-      </c>
-      <c r="F185" t="s">
-        <v>352</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7478,10 +7469,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>352</v>
+      </c>
+      <c r="F186" t="s">
         <v>353</v>
-      </c>
-      <c r="F186" t="s">
-        <v>354</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7507,10 +7498,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>354</v>
+      </c>
+      <c r="F187" t="s">
         <v>355</v>
-      </c>
-      <c r="F187" t="s">
-        <v>356</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7536,10 +7527,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>356</v>
+      </c>
+      <c r="F188" t="s">
         <v>357</v>
-      </c>
-      <c r="F188" t="s">
-        <v>358</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7565,10 +7556,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>358</v>
+      </c>
+      <c r="F189" t="s">
         <v>359</v>
-      </c>
-      <c r="F189" t="s">
-        <v>360</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7594,10 +7585,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>360</v>
+      </c>
+      <c r="F190" t="s">
         <v>361</v>
-      </c>
-      <c r="F190" t="s">
-        <v>362</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7623,13 +7614,13 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>362</v>
+      </c>
+      <c r="F191" t="s">
         <v>363</v>
       </c>
-      <c r="F191" t="s">
-        <v>364</v>
-      </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -7652,10 +7643,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>364</v>
+      </c>
+      <c r="F192" t="s">
         <v>365</v>
-      </c>
-      <c r="F192" t="s">
-        <v>366</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7681,10 +7672,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>366</v>
+      </c>
+      <c r="F193" t="s">
         <v>367</v>
-      </c>
-      <c r="F193" t="s">
-        <v>368</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7710,10 +7701,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>368</v>
+      </c>
+      <c r="F194" t="s">
         <v>369</v>
-      </c>
-      <c r="F194" t="s">
-        <v>370</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7739,10 +7730,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>370</v>
+      </c>
+      <c r="F195" t="s">
         <v>371</v>
-      </c>
-      <c r="F195" t="s">
-        <v>372</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7768,10 +7759,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>372</v>
+      </c>
+      <c r="F196" t="s">
         <v>373</v>
-      </c>
-      <c r="F196" t="s">
-        <v>374</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7797,10 +7788,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>374</v>
+      </c>
+      <c r="F197" t="s">
         <v>375</v>
-      </c>
-      <c r="F197" t="s">
-        <v>376</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7826,10 +7817,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>376</v>
+      </c>
+      <c r="F198" t="s">
         <v>377</v>
-      </c>
-      <c r="F198" t="s">
-        <v>378</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7855,10 +7846,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>378</v>
+      </c>
+      <c r="F199" t="s">
         <v>379</v>
-      </c>
-      <c r="F199" t="s">
-        <v>380</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7884,10 +7875,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>380</v>
+      </c>
+      <c r="F200" t="s">
         <v>381</v>
-      </c>
-      <c r="F200" t="s">
-        <v>382</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7913,10 +7904,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>382</v>
+      </c>
+      <c r="F201" t="s">
         <v>383</v>
-      </c>
-      <c r="F201" t="s">
-        <v>384</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7942,10 +7933,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>384</v>
+      </c>
+      <c r="F202" t="s">
         <v>385</v>
-      </c>
-      <c r="F202" t="s">
-        <v>386</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7971,10 +7962,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>386</v>
+      </c>
+      <c r="F203" t="s">
         <v>387</v>
-      </c>
-      <c r="F203" t="s">
-        <v>388</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8000,10 +7991,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>236</v>
+      </c>
+      <c r="F204" t="s">
         <v>237</v>
-      </c>
-      <c r="F204" t="s">
-        <v>238</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -8029,10 +8020,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>388</v>
+      </c>
+      <c r="F205" t="s">
         <v>389</v>
-      </c>
-      <c r="F205" t="s">
-        <v>390</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8058,10 +8049,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>390</v>
+      </c>
+      <c r="F206" t="s">
         <v>391</v>
-      </c>
-      <c r="F206" t="s">
-        <v>392</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8087,10 +8078,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>392</v>
+      </c>
+      <c r="F207" t="s">
         <v>393</v>
-      </c>
-      <c r="F207" t="s">
-        <v>394</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8116,10 +8107,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F208" t="s">
-        <v>396</v>
+        <v>239</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8145,10 +8136,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F209" t="s">
-        <v>398</v>
+        <v>241</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8174,10 +8165,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F210" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8203,10 +8194,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8232,10 +8223,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8261,10 +8252,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8290,10 +8281,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>254</v>
+      </c>
+      <c r="F214" t="s">
         <v>255</v>
-      </c>
-      <c r="F214" t="s">
-        <v>256</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8319,10 +8310,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F215" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8348,10 +8339,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F216" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8377,10 +8368,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F217" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8406,10 +8397,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F218" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -8435,10 +8426,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F219" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8464,10 +8455,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>202</v>
+      </c>
+      <c r="F220" t="s">
         <v>203</v>
-      </c>
-      <c r="F220" t="s">
-        <v>204</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8493,10 +8484,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F221" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8522,10 +8513,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F222" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G222" t="n">
         <v>3</v>
@@ -8551,10 +8542,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F223" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8580,10 +8571,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F224" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8609,10 +8600,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F225" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8638,10 +8629,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F226" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -8667,10 +8658,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F227" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8696,10 +8687,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F228" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8725,10 +8716,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F229" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8754,10 +8745,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F230" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8783,10 +8774,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F231" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8812,10 +8803,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F232" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8841,10 +8832,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F233" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8870,10 +8861,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F234" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8899,10 +8890,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F235" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8928,10 +8919,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F236" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8957,10 +8948,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F237" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8986,10 +8977,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F238" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9015,10 +9006,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F239" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9044,10 +9035,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F240" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9073,10 +9064,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F241" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9102,10 +9093,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F242" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9131,10 +9122,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F243" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G243" t="n">
         <v>3</v>
@@ -9160,10 +9151,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F244" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9189,10 +9180,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F245" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9218,10 +9209,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F246" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9247,10 +9238,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F247" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9276,10 +9267,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F248" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9305,10 +9296,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F249" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9334,10 +9325,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F250" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9363,10 +9354,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F251" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9392,10 +9383,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F252" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9421,10 +9412,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F253" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9450,10 +9441,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F254" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9479,10 +9470,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F255" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9508,10 +9499,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F256" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9537,10 +9528,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F257" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9566,10 +9557,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F258" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9595,10 +9586,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F259" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9624,10 +9615,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F260" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9653,10 +9644,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F261" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9682,10 +9673,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F262" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9711,10 +9702,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F263" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9740,10 +9731,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F264" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9769,10 +9760,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F265" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9798,10 +9789,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F266" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9827,10 +9818,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F267" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9856,10 +9847,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>296</v>
+      </c>
+      <c r="F268" t="s">
         <v>297</v>
-      </c>
-      <c r="F268" t="s">
-        <v>298</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9885,10 +9876,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F269" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9914,10 +9905,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F270" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9943,10 +9934,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F271" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9972,10 +9963,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F272" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10001,10 +9992,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F273" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10030,10 +10021,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F274" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10059,10 +10050,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F275" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10088,10 +10079,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F276" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10117,10 +10108,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F277" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10146,10 +10137,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F278" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10175,10 +10166,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F279" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10204,10 +10195,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F280" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10233,10 +10224,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F281" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10262,10 +10253,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F282" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10291,10 +10282,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F283" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10320,10 +10311,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F284" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10349,10 +10340,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F285" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10378,10 +10369,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F286" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10407,10 +10398,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F287" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10436,10 +10427,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -10465,10 +10456,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10494,10 +10485,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10523,10 +10514,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10552,10 +10543,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10581,10 +10572,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F293" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10610,10 +10601,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F294" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10639,10 +10630,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F295" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10668,10 +10659,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F296" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10697,10 +10688,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F297" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G297" t="n">
         <v>3</v>
@@ -10726,10 +10717,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F298" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10755,10 +10746,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F299" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10784,10 +10775,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F300" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10813,10 +10804,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F301" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>

--- a/xlsx/多米尼克_intext.xlsx
+++ b/xlsx/多米尼克_intext.xlsx
@@ -29,7 +29,7 @@
     <t>多米尼加</t>
   </si>
   <si>
-    <t>政策_政策_美國_多米尼克</t>
+    <t>体育运动_体育运动_伊朗_多米尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B%E5%9C%8B%E6%97%97</t>
